--- a/Training_indicators_regression/Results/regressions/model_comparison_indicators_regressions.xlsx
+++ b/Training_indicators_regression/Results/regressions/model_comparison_indicators_regressions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="10">
   <si>
     <t>CCRC</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>DTR</t>
+  </si>
+  <si>
+    <t>Dummy</t>
   </si>
   <si>
     <t>LR</t>
@@ -435,13 +438,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -592,13 +595,13 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -612,7 +615,7 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -782,16 +785,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-5.390953599245747</v>
+        <v>-5.434698338966609</v>
       </c>
       <c r="D2">
-        <v>-1.709203576976078</v>
+        <v>-0.8818853889075093</v>
       </c>
       <c r="E2">
-        <v>0.6053189837015237</v>
+        <v>0.6047392197972</v>
       </c>
       <c r="F2">
-        <v>0.5773339358594676</v>
+        <v>0.5774982073490371</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -802,16 +805,16 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.841849484966381</v>
+        <v>0.8508088292551551</v>
       </c>
       <c r="D3">
-        <v>0.888076125513381</v>
+        <v>0.8866718674628116</v>
       </c>
       <c r="E3">
-        <v>0.9979112521302551</v>
+        <v>0.9980661456665866</v>
       </c>
       <c r="F3">
-        <v>0.9965402932844669</v>
+        <v>0.996800325493715</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -822,16 +825,16 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.9042168180318177</v>
+        <v>0.9043098832926898</v>
       </c>
       <c r="D4">
-        <v>0.9120288705145424</v>
+        <v>0.9120088821569806</v>
       </c>
       <c r="E4">
-        <v>0.9987683949012186</v>
+        <v>0.9987713398694531</v>
       </c>
       <c r="F4">
-        <v>0.9987181110978169</v>
+        <v>0.9987211225857004</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -842,16 +845,16 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>0.9748531870360974</v>
+        <v>0.9746439521377847</v>
       </c>
       <c r="D5">
-        <v>0.9875519688049504</v>
+        <v>0.9876351509762978</v>
       </c>
       <c r="E5">
-        <v>0.9984169564981108</v>
+        <v>0.9983512214771851</v>
       </c>
       <c r="F5">
-        <v>0.9970174251383659</v>
+        <v>0.9969532215094562</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -862,16 +865,16 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>0.9691993215964003</v>
+        <v>0.9694098448797724</v>
       </c>
       <c r="D6">
-        <v>0.9868779806764355</v>
+        <v>0.9869778057764941</v>
       </c>
       <c r="E6">
-        <v>0.9986244681203784</v>
+        <v>0.9986245512352533</v>
       </c>
       <c r="F6">
-        <v>0.997759130070288</v>
+        <v>0.9977485274857719</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -882,16 +885,16 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>0.997268867691807</v>
+        <v>0.9972748835421501</v>
       </c>
       <c r="D7">
-        <v>0.9974093379015446</v>
+        <v>0.9974158535115111</v>
       </c>
       <c r="E7">
-        <v>0.9997260947042833</v>
+        <v>0.9997227819363097</v>
       </c>
       <c r="F7">
-        <v>0.9994931937186684</v>
+        <v>0.9994865685574422</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -902,16 +905,16 @@
         <v>46</v>
       </c>
       <c r="C8">
-        <v>0.9848532364137537</v>
+        <v>0.9846678773061254</v>
       </c>
       <c r="D8">
-        <v>0.9965933909734125</v>
+        <v>0.9966015131614382</v>
       </c>
       <c r="E8">
-        <v>0.9810999562520891</v>
+        <v>0.9805327763634454</v>
       </c>
       <c r="F8">
-        <v>0.9942447181023265</v>
+        <v>0.9942301668778551</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -922,16 +925,16 @@
         <v>47</v>
       </c>
       <c r="C9">
-        <v>0.6982204657649329</v>
+        <v>0.699791157164373</v>
       </c>
       <c r="D9">
-        <v>0.774651202018419</v>
+        <v>0.7769445607626945</v>
       </c>
       <c r="E9">
-        <v>0.9856548589559212</v>
+        <v>0.9857784628986277</v>
       </c>
       <c r="F9">
-        <v>0.9877293408991804</v>
+        <v>0.987847854247469</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -942,16 +945,16 @@
         <v>48</v>
       </c>
       <c r="C10">
-        <v>-0.1353160445383116</v>
+        <v>0.02028476467181432</v>
       </c>
       <c r="D10">
-        <v>0.2629261252808983</v>
+        <v>0.182417150133264</v>
       </c>
       <c r="E10">
-        <v>0.9659346718896932</v>
+        <v>0.9326855512794477</v>
       </c>
       <c r="F10">
-        <v>0.834381553426959</v>
+        <v>0.8474415250393069</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -962,16 +965,16 @@
         <v>53</v>
       </c>
       <c r="C11">
-        <v>-9.214620638940799</v>
+        <v>-11.96556621135181</v>
       </c>
       <c r="D11">
-        <v>-1.406666497332343</v>
+        <v>-1.896744786879998</v>
       </c>
       <c r="E11">
-        <v>0.9815972587091819</v>
+        <v>0.9806057502797033</v>
       </c>
       <c r="F11">
-        <v>0.9807728272508908</v>
+        <v>0.9821782169872654</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -982,16 +985,16 @@
         <v>56</v>
       </c>
       <c r="C12">
-        <v>0.9792013383051361</v>
+        <v>0.9792313499205364</v>
       </c>
       <c r="D12">
-        <v>0.9981698755729068</v>
+        <v>0.9981745822193312</v>
       </c>
       <c r="E12">
-        <v>0.9994588090146009</v>
+        <v>0.9994599109848128</v>
       </c>
       <c r="F12">
-        <v>0.9989185333267203</v>
+        <v>0.9989209540441101</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1002,16 +1005,16 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>0.7755520449418464</v>
+        <v>0.7761552888962928</v>
       </c>
       <c r="D13">
-        <v>0.9595129454538154</v>
+        <v>0.9597814230224545</v>
       </c>
       <c r="E13">
-        <v>0.983490012037093</v>
+        <v>0.9834965579954843</v>
       </c>
       <c r="F13">
-        <v>0.9856928441991452</v>
+        <v>0.9857073921607795</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1022,16 +1025,16 @@
         <v>64</v>
       </c>
       <c r="C14">
-        <v>0.05713959550102066</v>
+        <v>-0.03055302931599113</v>
       </c>
       <c r="D14">
-        <v>0.6880955925728435</v>
+        <v>0.5745188653944608</v>
       </c>
       <c r="E14">
-        <v>0.9953618179720229</v>
+        <v>0.998218297630844</v>
       </c>
       <c r="F14">
-        <v>0.9825897626263517</v>
+        <v>0.9853765262403026</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1042,16 +1045,16 @@
         <v>66</v>
       </c>
       <c r="C15">
-        <v>0.9880611620974401</v>
+        <v>0.9878542935893634</v>
       </c>
       <c r="D15">
-        <v>0.9983644687126527</v>
+        <v>0.9984490199833647</v>
       </c>
       <c r="E15">
-        <v>0.974407179686493</v>
+        <v>0.9703699889381926</v>
       </c>
       <c r="F15">
-        <v>0.9970868019974611</v>
+        <v>0.9969794059131963</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1062,16 +1065,16 @@
         <v>67</v>
       </c>
       <c r="C16">
-        <v>0.7935708070168536</v>
+        <v>0.7941829266196719</v>
       </c>
       <c r="D16">
-        <v>0.823698263265455</v>
+        <v>0.8228215040006179</v>
       </c>
       <c r="E16">
-        <v>0.9852337038711175</v>
+        <v>0.9851108825151357</v>
       </c>
       <c r="F16">
-        <v>0.98618838514677</v>
+        <v>0.9861001790393954</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1082,16 +1085,16 @@
         <v>72</v>
       </c>
       <c r="C17">
-        <v>0.9799214551807176</v>
+        <v>0.9798756396935727</v>
       </c>
       <c r="D17">
-        <v>0.9617511246256374</v>
+        <v>0.9619898125329582</v>
       </c>
       <c r="E17">
-        <v>0.998279469685417</v>
+        <v>0.998295031049465</v>
       </c>
       <c r="F17">
-        <v>0.9983849075087718</v>
+        <v>0.9983641397266062</v>
       </c>
     </row>
   </sheetData>
@@ -1132,16 +1135,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-5.558364597615508</v>
+        <v>-5.979975832339652</v>
       </c>
       <c r="D2">
-        <v>-2.109687286669273</v>
+        <v>0.06134993428121505</v>
       </c>
       <c r="E2">
-        <v>0.9872954733166915</v>
+        <v>0.9880300597551476</v>
       </c>
       <c r="F2">
-        <v>0.9058958038939161</v>
+        <v>0.9013578944574984</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1152,16 +1155,16 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.6801633926353901</v>
+        <v>0.6738859251095266</v>
       </c>
       <c r="D3">
-        <v>0.6324677036038495</v>
+        <v>0.7015642362445984</v>
       </c>
       <c r="E3">
-        <v>0.9849826137776859</v>
+        <v>0.9849826137776858</v>
       </c>
       <c r="F3">
-        <v>0.9678377742233332</v>
+        <v>0.9740399192340374</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1172,13 +1175,13 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.3962048255946438</v>
+        <v>0.396173280681802</v>
       </c>
       <c r="D4">
-        <v>0.5139153525651176</v>
+        <v>0.5139153525651177</v>
       </c>
       <c r="E4">
-        <v>0.9990634288786026</v>
+        <v>0.999058113414921</v>
       </c>
       <c r="F4">
         <v>0.9989897148234947</v>
@@ -1192,13 +1195,13 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>0.6512801005840906</v>
+        <v>0.6415780133584117</v>
       </c>
       <c r="D5">
         <v>0.7596617390346583</v>
       </c>
       <c r="E5">
-        <v>0.9974643009244324</v>
+        <v>0.997220786185818</v>
       </c>
       <c r="F5">
         <v>0.9928543093560749</v>
@@ -1212,16 +1215,16 @@
         <v>32</v>
       </c>
       <c r="C6">
-        <v>0.2523955022211537</v>
+        <v>0.2506117458997662</v>
       </c>
       <c r="D6">
-        <v>0.3434640742874366</v>
+        <v>0.3434640742874367</v>
       </c>
       <c r="E6">
-        <v>0.9895636224073252</v>
+        <v>0.989563622407325</v>
       </c>
       <c r="F6">
-        <v>0.9900366234827962</v>
+        <v>0.990053634129644</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1232,16 +1235,16 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>0.9949369125852215</v>
+        <v>0.9949443220320967</v>
       </c>
       <c r="D7">
-        <v>0.9952532389891515</v>
+        <v>0.9952631743057316</v>
       </c>
       <c r="E7">
-        <v>0.999513613777223</v>
+        <v>0.999505734102386</v>
       </c>
       <c r="F7">
-        <v>0.9992681629113147</v>
+        <v>0.9992462850508727</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1252,16 +1255,16 @@
         <v>46</v>
       </c>
       <c r="C8">
-        <v>0.9887460845766602</v>
+        <v>0.9884712356369731</v>
       </c>
       <c r="D8">
-        <v>0.98945403126124</v>
+        <v>0.9887407349221006</v>
       </c>
       <c r="E8">
-        <v>0.9899139239786092</v>
+        <v>0.990430241042115</v>
       </c>
       <c r="F8">
-        <v>0.948603799550661</v>
+        <v>0.9486037995506605</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1272,16 +1275,16 @@
         <v>47</v>
       </c>
       <c r="C9">
-        <v>0.3717841617647758</v>
+        <v>0.3757732127830192</v>
       </c>
       <c r="D9">
-        <v>0.5975373913254687</v>
+        <v>0.5890984295489745</v>
       </c>
       <c r="E9">
-        <v>0.9834469295867848</v>
+        <v>0.9836758050493017</v>
       </c>
       <c r="F9">
-        <v>0.985884357740644</v>
+        <v>0.9858459501601767</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1292,13 +1295,13 @@
         <v>48</v>
       </c>
       <c r="C10">
-        <v>0.08830481022808601</v>
+        <v>-0.1166522629591034</v>
       </c>
       <c r="D10">
-        <v>0.570084794524207</v>
+        <v>0.13817223867064</v>
       </c>
       <c r="E10">
-        <v>-0.1495350465873686</v>
+        <v>0.5078132695689224</v>
       </c>
       <c r="F10">
         <v>0.7504095543346436</v>
@@ -1312,16 +1315,16 @@
         <v>53</v>
       </c>
       <c r="C11">
-        <v>-14.69983935382397</v>
+        <v>-46.37561159372557</v>
       </c>
       <c r="D11">
-        <v>-199.9372863198761</v>
+        <v>-28.01232981046573</v>
       </c>
       <c r="E11">
-        <v>-1.881162493474783</v>
+        <v>0.9396323974433283</v>
       </c>
       <c r="F11">
-        <v>-1.73530138223365</v>
+        <v>0.9369224054668278</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1332,16 +1335,16 @@
         <v>56</v>
       </c>
       <c r="C12">
-        <v>0.9932779803836593</v>
+        <v>0.9932779803836592</v>
       </c>
       <c r="D12">
-        <v>0.9970148316271704</v>
+        <v>0.9971026284496838</v>
       </c>
       <c r="E12">
         <v>0.9994184439592851</v>
       </c>
       <c r="F12">
-        <v>0.998818750404328</v>
+        <v>0.9988187504043279</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1352,16 +1355,16 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>0.0514185593006351</v>
+        <v>0.0533039744468764</v>
       </c>
       <c r="D13">
-        <v>0.1326452201185329</v>
+        <v>0.1338739543789512</v>
       </c>
       <c r="E13">
-        <v>0.9684401639308355</v>
+        <v>0.9684253552419275</v>
       </c>
       <c r="F13">
-        <v>0.9644828980033548</v>
+        <v>0.9634918817097047</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1372,16 +1375,16 @@
         <v>64</v>
       </c>
       <c r="C14">
-        <v>0.107301651841275</v>
+        <v>0.5646102146027379</v>
       </c>
       <c r="D14">
         <v>-12.92584328001561</v>
       </c>
       <c r="E14">
-        <v>0.9277771658161028</v>
+        <v>0.940036000607452</v>
       </c>
       <c r="F14">
-        <v>0.700015218745682</v>
+        <v>0.7000152187456794</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1392,16 +1395,16 @@
         <v>66</v>
       </c>
       <c r="C15">
-        <v>0.9716028228174756</v>
+        <v>0.9707278373785135</v>
       </c>
       <c r="D15">
-        <v>0.999157897797525</v>
+        <v>0.9991480875975304</v>
       </c>
       <c r="E15">
-        <v>0.9539216660315514</v>
+        <v>0.8978342704512925</v>
       </c>
       <c r="F15">
-        <v>0.9811441994020594</v>
+        <v>0.9770210765828304</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1412,16 +1415,16 @@
         <v>67</v>
       </c>
       <c r="C16">
-        <v>0.4339553634397344</v>
+        <v>0.4371185123348116</v>
       </c>
       <c r="D16">
-        <v>0.5265460137902775</v>
+        <v>0.5267396103336384</v>
       </c>
       <c r="E16">
-        <v>0.9773129741859063</v>
+        <v>0.9773246084707697</v>
       </c>
       <c r="F16">
-        <v>0.9755939360026431</v>
+        <v>0.9754859148199509</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1432,16 +1435,16 @@
         <v>72</v>
       </c>
       <c r="C17">
-        <v>0.7718216064229946</v>
+        <v>0.7718216064229944</v>
       </c>
       <c r="D17">
-        <v>0.8570877180410237</v>
+        <v>0.8520477699079567</v>
       </c>
       <c r="E17">
-        <v>0.9982204033719618</v>
+        <v>0.9982207859757388</v>
       </c>
       <c r="F17">
-        <v>0.9958315863101888</v>
+        <v>0.995907511448303</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1642,10 +1645,10 @@
         <v>48</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
